--- a/data/trans_dic/P23_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo</t>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 21,73</t>
+          <t>10,76; 22,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 27,12</t>
+          <t>13,96; 38,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 25,05</t>
+          <t>8,31; 19,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,97; 24,68</t>
+          <t>8,12; 19,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 21,19</t>
+          <t>16,07; 27,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,62</t>
+          <t>12,54; 23,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,75</t>
+          <t>14,11; 25,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 21,73</t>
+          <t>19,91; 33,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 20,81</t>
+          <t>15,18; 23,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 26,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,52; 20,55</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 24,52</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>19,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 23,1</t>
+          <t>10,91; 24,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 19,9</t>
+          <t>5,51; 16,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,63</t>
+          <t>7,29; 19,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 28,03</t>
+          <t>10,48; 23,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,21; 26,55</t>
+          <t>16,55; 29,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 19,35</t>
+          <t>16,2; 28,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,69; 23,56</t>
+          <t>9,53; 20,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,95</t>
+          <t>13,14; 26,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,66</t>
+          <t>15,73; 25,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12,17; 21,04</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10,04; 17,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 22,68</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26,36%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 29,48</t>
+          <t>3,4; 32,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 29,89</t>
+          <t>7,48; 46,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 28,87</t>
+          <t>6,6; 48,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 34,89</t>
+          <t>3,48; 36,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 33,33</t>
+          <t>7,61; 34,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 16,18</t>
+          <t>15,39; 46,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,37; 29,37</t>
+          <t>2,1; 22,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 27,11</t>
+          <t>2,07; 22,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 19,14</t>
+          <t>6,37; 26,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 41,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 29,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 22,7</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,41</t>
+          <t>11,94; 20,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,67; 20,04</t>
+          <t>12,4; 25,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 18,85</t>
+          <t>10,15; 18,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,41</t>
+          <t>10,84; 19,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 22,36</t>
+          <t>17,98; 25,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,17</t>
+          <t>16,68; 24,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,51</t>
+          <t>12,63; 19,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 19,99</t>
+          <t>16,93; 26,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,1</t>
+          <t>16,09; 21,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 23,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 17,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 21,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>67498</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>74223</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49568</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65305</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>104220</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>72201</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75668</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>143199</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>171719</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>146424</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>125236</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>208504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45035; 95813</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48936; 135291</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31447; 75576</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39985; 96243</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>78804; 137204</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51958; 97328</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>56613; 100292</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>110093; 182538</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>137916; 213765</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>110848; 204117</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>97582; 160189</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>161396; 256420</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58787</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30582</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39269</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>65297</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>94604</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>72887</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47458</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75488</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>153391</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>103470</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>86726</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>140785</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38403; 84843</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16892; 49499</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23131; 61313</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42496; 95106</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>70398; 123901</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>54265; 96175</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31732; 67025</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>52698; 104307</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>122318; 194685</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78066; 134925</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>65250; 114720</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104955; 182971</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13376</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18357</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18679</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18246</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22615</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6692</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9236</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30475</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40972</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25371</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27481</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3458; 33406</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5808; 36050</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5060; 37529</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4036; 42079</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7157; 32114</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11973; 35974</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1732; 18241</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2239; 24583</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12473; 50929</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23972; 64277</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11428; 46323</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11119; 50890</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>139661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>123162</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>107516</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>148847</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>215923</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>129817</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>227922</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>355584</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>290865</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>237333</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>376769</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>104172; 175218</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>91096; 186731</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>78385; 142131</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>109948; 193370</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>181516; 261961</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>137932; 202308</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>103127; 160182</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>179871; 279408</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>302716; 411530</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>246086; 361843</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>195979; 281995</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>315353; 439211</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
